--- a/excel/lop/11a1.xlsx
+++ b/excel/lop/11a1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\test3\excel\lop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\mvc-php\excel\lop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C81FE639-9B21-4959-B725-B9B0133E56BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EE4CA13-3DE2-4C6D-A677-55EDEE88B837}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="15375" windowHeight="7875" xr2:uid="{9CBF4156-4CDB-4C3F-B325-C52CFB6B8263}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="15375" windowHeight="7875" xr2:uid="{9CBF4156-4CDB-4C3F-B325-C52CFB6B8263}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="21">
   <si>
     <t>mã lớp</t>
   </si>
@@ -70,12 +70,6 @@
   </si>
   <si>
     <t>Nữ</t>
-  </si>
-  <si>
-    <t>17/10/2000</t>
-  </si>
-  <si>
-    <t>27/12/2000</t>
   </si>
   <si>
     <t>Đông hòa</t>
@@ -109,6 +103,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -138,8 +135,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -457,7 +455,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A6"/>
+      <selection activeCell="F3" sqref="F3:F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -493,10 +491,10 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
@@ -507,22 +505,22 @@
       <c r="E2">
         <v>2014</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="1">
+        <v>36582</v>
+      </c>
+      <c r="G2" t="s">
         <v>12</v>
-      </c>
-      <c r="G2" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D3" t="s">
         <v>11</v>
@@ -530,22 +528,22 @@
       <c r="E3">
         <v>2015</v>
       </c>
-      <c r="F3" t="s">
-        <v>13</v>
+      <c r="F3" s="1">
+        <v>36582</v>
       </c>
       <c r="G3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D4" t="s">
         <v>10</v>
@@ -553,22 +551,22 @@
       <c r="E4">
         <v>2014</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="1">
+        <v>36582</v>
+      </c>
+      <c r="G4" t="s">
         <v>12</v>
-      </c>
-      <c r="G4" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
         <v>10</v>
@@ -576,16 +574,16 @@
       <c r="E5">
         <v>2015</v>
       </c>
-      <c r="F5" t="s">
-        <v>13</v>
+      <c r="F5" s="1">
+        <v>36582</v>
       </c>
       <c r="G5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>8</v>
@@ -599,14 +597,15 @@
       <c r="E6">
         <v>2013</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="1">
+        <v>36582</v>
+      </c>
+      <c r="G6" t="s">
         <v>12</v>
-      </c>
-      <c r="G6" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>